--- a/natmiOut/OldD7/LR-pairs_lrc2p/Bgn-Fgfr3.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Bgn-Fgfr3.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>54.4741642283065</v>
+        <v>66.27558733333333</v>
       </c>
       <c r="H2">
-        <v>54.4741642283065</v>
+        <v>198.826762</v>
       </c>
       <c r="I2">
-        <v>0.01313911259974995</v>
+        <v>0.01593739484152995</v>
       </c>
       <c r="J2">
-        <v>0.01313911259974995</v>
+        <v>0.01593739484152995</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.99204278133065</v>
+        <v>6.408252</v>
       </c>
       <c r="N2">
-        <v>5.99204278133065</v>
+        <v>19.224756</v>
       </c>
       <c r="O2">
-        <v>0.8613055114466259</v>
+        <v>0.8583439096634812</v>
       </c>
       <c r="P2">
-        <v>0.8613055114466259</v>
+        <v>0.8583439096634812</v>
       </c>
       <c r="Q2">
-        <v>326.4115225332442</v>
+        <v>424.710665080008</v>
       </c>
       <c r="R2">
-        <v>326.4115225332442</v>
+        <v>3822.395985720072</v>
       </c>
       <c r="S2">
-        <v>0.01131679009768244</v>
+        <v>0.01367976579812941</v>
       </c>
       <c r="T2">
-        <v>0.01131679009768244</v>
+        <v>0.01367976579812941</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>54.4741642283065</v>
+        <v>66.27558733333333</v>
       </c>
       <c r="H3">
-        <v>54.4741642283065</v>
+        <v>198.826762</v>
       </c>
       <c r="I3">
-        <v>0.01313911259974995</v>
+        <v>0.01593739484152995</v>
       </c>
       <c r="J3">
-        <v>0.01313911259974995</v>
+        <v>0.01593739484152995</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.593847247754663</v>
+        <v>0.6824433333333334</v>
       </c>
       <c r="N3">
-        <v>0.593847247754663</v>
+        <v>2.04733</v>
       </c>
       <c r="O3">
-        <v>0.08536052329968784</v>
+        <v>0.09140887075868921</v>
       </c>
       <c r="P3">
-        <v>0.08536052329968784</v>
+        <v>0.09140887075868921</v>
       </c>
       <c r="Q3">
-        <v>32.34933250071533</v>
+        <v>45.22933273838445</v>
       </c>
       <c r="R3">
-        <v>32.34933250071533</v>
+        <v>407.06399464546</v>
       </c>
       <c r="S3">
-        <v>0.001121561527208178</v>
+        <v>0.001456819265299611</v>
       </c>
       <c r="T3">
-        <v>0.001121561527208178</v>
+        <v>0.001456819265299611</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>54.4741642283065</v>
+        <v>66.27558733333333</v>
       </c>
       <c r="H4">
-        <v>54.4741642283065</v>
+        <v>198.826762</v>
       </c>
       <c r="I4">
-        <v>0.01313911259974995</v>
+        <v>0.01593739484152995</v>
       </c>
       <c r="J4">
-        <v>0.01313911259974995</v>
+        <v>0.01593739484152995</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.371040701877471</v>
+        <v>0.3751373333333333</v>
       </c>
       <c r="N4">
-        <v>0.371040701877471</v>
+        <v>1.125412</v>
       </c>
       <c r="O4">
-        <v>0.05333396525368623</v>
+        <v>0.05024721957782962</v>
       </c>
       <c r="P4">
-        <v>0.05333396525368623</v>
+        <v>0.05024721957782963</v>
       </c>
       <c r="Q4">
-        <v>20.21213212945947</v>
+        <v>24.86244709732711</v>
       </c>
       <c r="R4">
-        <v>20.21213212945947</v>
+        <v>223.762023875944</v>
       </c>
       <c r="S4">
-        <v>0.000700760974859335</v>
+        <v>0.0008008097781009244</v>
       </c>
       <c r="T4">
-        <v>0.000700760974859335</v>
+        <v>0.0008008097781009245</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4010.83820253453</v>
+        <v>4010.868571</v>
       </c>
       <c r="H5">
-        <v>4010.83820253453</v>
+        <v>12032.605713</v>
       </c>
       <c r="I5">
-        <v>0.9674100651019425</v>
+        <v>0.9644998806575645</v>
       </c>
       <c r="J5">
-        <v>0.9674100651019425</v>
+        <v>0.9644998806575644</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.99204278133065</v>
+        <v>6.408252</v>
       </c>
       <c r="N5">
-        <v>5.99204278133065</v>
+        <v>19.224756</v>
       </c>
       <c r="O5">
-        <v>0.8613055114466259</v>
+        <v>0.8583439096634812</v>
       </c>
       <c r="P5">
-        <v>0.8613055114466259</v>
+        <v>0.8583439096634812</v>
       </c>
       <c r="Q5">
-        <v>24033.11409858223</v>
+        <v>25702.6565418479</v>
       </c>
       <c r="R5">
-        <v>24033.11409858223</v>
+        <v>231323.908876631</v>
       </c>
       <c r="S5">
-        <v>0.8332356209012423</v>
+        <v>0.827872598433575</v>
       </c>
       <c r="T5">
-        <v>0.8332356209012423</v>
+        <v>0.8278725984335749</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4010.83820253453</v>
+        <v>4010.868571</v>
       </c>
       <c r="H6">
-        <v>4010.83820253453</v>
+        <v>12032.605713</v>
       </c>
       <c r="I6">
-        <v>0.9674100651019425</v>
+        <v>0.9644998806575645</v>
       </c>
       <c r="J6">
-        <v>0.9674100651019425</v>
+        <v>0.9644998806575644</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.593847247754663</v>
+        <v>0.6824433333333334</v>
       </c>
       <c r="N6">
-        <v>0.593847247754663</v>
+        <v>2.04733</v>
       </c>
       <c r="O6">
-        <v>0.08536052329968784</v>
+        <v>0.09140887075868921</v>
       </c>
       <c r="P6">
-        <v>0.08536052329968784</v>
+        <v>0.09140887075868921</v>
       </c>
       <c r="Q6">
-        <v>2381.82522776439</v>
+        <v>2737.190517155144</v>
       </c>
       <c r="R6">
-        <v>2381.82522776439</v>
+        <v>24634.71465439629</v>
       </c>
       <c r="S6">
-        <v>0.08257862940248689</v>
+        <v>0.08816384493779848</v>
       </c>
       <c r="T6">
-        <v>0.08257862940248689</v>
+        <v>0.08816384493779847</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4010.83820253453</v>
+        <v>4010.868571</v>
       </c>
       <c r="H7">
-        <v>4010.83820253453</v>
+        <v>12032.605713</v>
       </c>
       <c r="I7">
-        <v>0.9674100651019425</v>
+        <v>0.9644998806575645</v>
       </c>
       <c r="J7">
-        <v>0.9674100651019425</v>
+        <v>0.9644998806575644</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.371040701877471</v>
+        <v>0.3751373333333333</v>
       </c>
       <c r="N7">
-        <v>0.371040701877471</v>
+        <v>1.125412</v>
       </c>
       <c r="O7">
-        <v>0.05333396525368623</v>
+        <v>0.05024721957782962</v>
       </c>
       <c r="P7">
-        <v>0.05333396525368623</v>
+        <v>0.05024721957782963</v>
       </c>
       <c r="Q7">
-        <v>1488.184221785386</v>
+        <v>1504.626540075417</v>
       </c>
       <c r="R7">
-        <v>1488.184221785386</v>
+        <v>13541.63886067876</v>
       </c>
       <c r="S7">
-        <v>0.05159581479821333</v>
+        <v>0.04846343728619111</v>
       </c>
       <c r="T7">
-        <v>0.05159581479821333</v>
+        <v>0.04846343728619111</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.43845554901531</v>
+        <v>7.714644</v>
       </c>
       <c r="H8">
-        <v>7.43845554901531</v>
+        <v>23.143932</v>
       </c>
       <c r="I8">
-        <v>0.001794147857269208</v>
+        <v>0.001855152589919057</v>
       </c>
       <c r="J8">
-        <v>0.001794147857269208</v>
+        <v>0.001855152589919056</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.99204278133065</v>
+        <v>6.408252</v>
       </c>
       <c r="N8">
-        <v>5.99204278133065</v>
+        <v>19.224756</v>
       </c>
       <c r="O8">
-        <v>0.8613055114466259</v>
+        <v>0.8583439096634812</v>
       </c>
       <c r="P8">
-        <v>0.8613055114466259</v>
+        <v>0.8583439096634812</v>
       </c>
       <c r="Q8">
-        <v>44.5715438767261</v>
+        <v>49.437382842288</v>
       </c>
       <c r="R8">
-        <v>44.5715438767261</v>
+        <v>444.936445580592</v>
       </c>
       <c r="S8">
-        <v>0.001545309437816123</v>
+        <v>0.001592358927053456</v>
       </c>
       <c r="T8">
-        <v>0.001545309437816123</v>
+        <v>0.001592358927053456</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.43845554901531</v>
+        <v>7.714644</v>
       </c>
       <c r="H9">
-        <v>7.43845554901531</v>
+        <v>23.143932</v>
       </c>
       <c r="I9">
-        <v>0.001794147857269208</v>
+        <v>0.001855152589919057</v>
       </c>
       <c r="J9">
-        <v>0.001794147857269208</v>
+        <v>0.001855152589919056</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.593847247754663</v>
+        <v>0.6824433333333334</v>
       </c>
       <c r="N9">
-        <v>0.593847247754663</v>
+        <v>2.04733</v>
       </c>
       <c r="O9">
-        <v>0.08536052329968784</v>
+        <v>0.09140887075868921</v>
       </c>
       <c r="P9">
-        <v>0.08536052329968784</v>
+        <v>0.09140887075868921</v>
       </c>
       <c r="Q9">
-        <v>4.417306355328143</v>
+        <v>5.26480736684</v>
       </c>
       <c r="R9">
-        <v>4.417306355328143</v>
+        <v>47.38326630156</v>
       </c>
       <c r="S9">
-        <v>0.0001531493999735132</v>
+        <v>0.0001695774033295586</v>
       </c>
       <c r="T9">
-        <v>0.0001531493999735132</v>
+        <v>0.0001695774033295586</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.43845554901531</v>
+        <v>7.714644</v>
       </c>
       <c r="H10">
-        <v>7.43845554901531</v>
+        <v>23.143932</v>
       </c>
       <c r="I10">
-        <v>0.001794147857269208</v>
+        <v>0.001855152589919057</v>
       </c>
       <c r="J10">
-        <v>0.001794147857269208</v>
+        <v>0.001855152589919056</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.371040701877471</v>
+        <v>0.3751373333333333</v>
       </c>
       <c r="N10">
-        <v>0.371040701877471</v>
+        <v>1.125412</v>
       </c>
       <c r="O10">
-        <v>0.05333396525368623</v>
+        <v>0.05024721957782962</v>
       </c>
       <c r="P10">
-        <v>0.05333396525368623</v>
+        <v>0.05024721957782963</v>
       </c>
       <c r="Q10">
-        <v>2.75996976779101</v>
+        <v>2.894050977775999</v>
       </c>
       <c r="R10">
-        <v>2.75996976779101</v>
+        <v>26.04645879998399</v>
       </c>
       <c r="S10">
-        <v>9.568901947957152E-05</v>
+        <v>9.321625953604215E-05</v>
       </c>
       <c r="T10">
-        <v>9.568901947957152E-05</v>
+        <v>9.321625953604215E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>73.20377049247359</v>
+        <v>73.63686100000001</v>
       </c>
       <c r="H11">
-        <v>73.20377049247359</v>
+        <v>220.910583</v>
       </c>
       <c r="I11">
-        <v>0.01765667444103833</v>
+        <v>0.01770757191098638</v>
       </c>
       <c r="J11">
-        <v>0.01765667444103833</v>
+        <v>0.01770757191098637</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.99204278133065</v>
+        <v>6.408252</v>
       </c>
       <c r="N11">
-        <v>5.99204278133065</v>
+        <v>19.224756</v>
       </c>
       <c r="O11">
-        <v>0.8613055114466259</v>
+        <v>0.8583439096634812</v>
       </c>
       <c r="P11">
-        <v>0.8613055114466259</v>
+        <v>0.8583439096634812</v>
       </c>
       <c r="Q11">
-        <v>438.640124545612</v>
+        <v>471.883561776972</v>
       </c>
       <c r="R11">
-        <v>438.640124545612</v>
+        <v>4246.952055992749</v>
       </c>
       <c r="S11">
-        <v>0.01520779100988509</v>
+        <v>0.01519918650472329</v>
       </c>
       <c r="T11">
-        <v>0.01520779100988509</v>
+        <v>0.01519918650472329</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>73.20377049247359</v>
+        <v>73.63686100000001</v>
       </c>
       <c r="H12">
-        <v>73.20377049247359</v>
+        <v>220.910583</v>
       </c>
       <c r="I12">
-        <v>0.01765667444103833</v>
+        <v>0.01770757191098638</v>
       </c>
       <c r="J12">
-        <v>0.01765667444103833</v>
+        <v>0.01770757191098637</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.593847247754663</v>
+        <v>0.6824433333333334</v>
       </c>
       <c r="N12">
-        <v>0.593847247754663</v>
+        <v>2.04733</v>
       </c>
       <c r="O12">
-        <v>0.08536052329968784</v>
+        <v>0.09140887075868921</v>
       </c>
       <c r="P12">
-        <v>0.08536052329968784</v>
+        <v>0.09140887075868921</v>
       </c>
       <c r="Q12">
-        <v>43.47185763221945</v>
+        <v>50.25298487704335</v>
       </c>
       <c r="R12">
-        <v>43.47185763221945</v>
+        <v>452.2768638933901</v>
       </c>
       <c r="S12">
-        <v>0.001507182970019255</v>
+        <v>0.001618629152261549</v>
       </c>
       <c r="T12">
-        <v>0.001507182970019255</v>
+        <v>0.001618629152261549</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>73.20377049247359</v>
+        <v>73.63686100000001</v>
       </c>
       <c r="H13">
-        <v>73.20377049247359</v>
+        <v>220.910583</v>
       </c>
       <c r="I13">
-        <v>0.01765667444103833</v>
+        <v>0.01770757191098638</v>
       </c>
       <c r="J13">
-        <v>0.01765667444103833</v>
+        <v>0.01770757191098637</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.371040701877471</v>
+        <v>0.3751373333333333</v>
       </c>
       <c r="N13">
-        <v>0.371040701877471</v>
+        <v>1.125412</v>
       </c>
       <c r="O13">
-        <v>0.05333396525368623</v>
+        <v>0.05024721957782962</v>
       </c>
       <c r="P13">
-        <v>0.05333396525368623</v>
+        <v>0.05024721957782963</v>
       </c>
       <c r="Q13">
-        <v>27.16157838360471</v>
+        <v>27.62393567057733</v>
       </c>
       <c r="R13">
-        <v>27.16157838360471</v>
+        <v>248.615421035196</v>
       </c>
       <c r="S13">
-        <v>0.0009417004611339879</v>
+        <v>0.0008897562540015406</v>
       </c>
       <c r="T13">
-        <v>0.0009417004611339879</v>
+        <v>0.0008897562540015405</v>
       </c>
     </row>
   </sheetData>
